--- a/テーブル構成.xlsx
+++ b/テーブル構成.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b53b28c179b7ea4/デスクトップ/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B6B7A4C-D8CD-4D20-A135-8416619EE6EB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" tabRatio="935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19100" windowHeight="7300" tabRatio="935" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="案件テーブル" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
   <si>
     <t>レコード項目</t>
   </si>
@@ -453,8 +447,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,14 +463,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,12 +622,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -513,18 +836,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -532,24 +1100,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
+    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
+    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
+    <cellStyle name="通貨" xfId="6" builtinId="4"/>
+    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
+    <cellStyle name="メモ" xfId="8" builtinId="10"/>
+    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
+    <cellStyle name="良い" xfId="13" builtinId="26"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11"/>
+    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
+    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
+    <cellStyle name="説明文" xfId="17" builtinId="53"/>
+    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
+    <cellStyle name="出力" xfId="19" builtinId="21"/>
+    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
+    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
+    <cellStyle name="計算" xfId="22" builtinId="22"/>
+    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
+    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
+    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
+    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
+    <cellStyle name="集計" xfId="28" builtinId="25"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
+    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
+    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
+    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
+    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
+    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
+    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
+    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
+    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
+    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -807,25 +1413,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="48.109375" customWidth="1"/>
+    <col min="1" max="2" width="19.7818181818182" customWidth="1"/>
+    <col min="5" max="5" width="10.2181818181818" customWidth="1"/>
+    <col min="6" max="6" width="10.6636363636364" customWidth="1"/>
+    <col min="8" max="8" width="48.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,226 +1459,229 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3">
         <v>25</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" ht="26" spans="1:8">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>8</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>8</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="39.6640625" customWidth="1"/>
+    <col min="1" max="2" width="19.7818181818182" customWidth="1"/>
+    <col min="5" max="5" width="10.2181818181818" customWidth="1"/>
+    <col min="6" max="6" width="10.6636363636364" customWidth="1"/>
+    <col min="8" max="8" width="39.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,284 +1707,287 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3">
         <v>500</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>6</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>6</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>8</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3">
         <v>8</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" ht="26" spans="1:8">
+      <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3">
         <v>8</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3">
         <v>30</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>6</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3">
         <v>30</v>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3">
         <v>200</v>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>6</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="43.109375" customWidth="1"/>
+    <col min="1" max="2" width="19.7818181818182" customWidth="1"/>
+    <col min="5" max="5" width="10.2181818181818" customWidth="1"/>
+    <col min="6" max="6" width="10.6636363636364" customWidth="1"/>
+    <col min="8" max="8" width="43.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1399,116 +2013,119 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="26" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3">
         <v>8</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3">
         <v>8</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.8909090909091" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="32.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.6636363636364" customWidth="1"/>
+    <col min="8" max="8" width="32.2181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1534,273 +2151,276 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3">
         <v>8</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3">
         <v>20</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>8</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>20</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3">
         <v>20</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" ht="26" spans="1:8">
+      <c r="A9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="2">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" ht="26" spans="1:8">
+      <c r="A10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3">
         <v>500</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3">
         <v>50</v>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="39.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6636363636364" customWidth="1"/>
+    <col min="2" max="2" width="11.8909090909091" customWidth="1"/>
+    <col min="8" max="8" width="39.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1826,192 +2446,195 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3">
         <v>8</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="26" spans="1:8">
+      <c r="A5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6636363636364" customWidth="1"/>
+    <col min="2" max="2" width="8.44545454545455" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.33636363636364" customWidth="1"/>
+    <col min="5" max="5" width="10.2181818181818" customWidth="1"/>
+    <col min="6" max="6" width="10.6636363636364" customWidth="1"/>
+    <col min="7" max="7" width="8.78181818181818" customWidth="1"/>
+    <col min="8" max="8" width="23.7818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2037,67 +2660,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" ht="39" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3">
         <v>100</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="13" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="40.77734375" customWidth="1"/>
+    <col min="2" max="2" width="40.7818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -2105,319 +2731,319 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A13:B13"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/テーブル構成.xlsx
+++ b/テーブル構成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7300" tabRatio="935" activeTab="4"/>
+    <workbookView windowWidth="19100" windowHeight="7300" tabRatio="935"/>
   </bookViews>
   <sheets>
     <sheet name="案件テーブル" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,24 @@
     <sheet name="項目マスタ内容" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">ユーザーテーブル!$A$1:$H$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">案件詳細テーブル!$A$1:$H$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">応募_候補一覧テーブル!$A$1:$H$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">項目マスタ!$A$1:$H$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">項目マスタ内容!$A$1:$B$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">ユーザーテーブル!$A$1:$H$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">項目マスタ!$A$1:$H$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">項目マスタ内容!$A$1:$B$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">案件詳細テーブル!$A$1:$H$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">応募_候補一覧テーブル!$A$1:$H$7</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
+  <si>
+    <t>テーブル名</t>
+  </si>
+  <si>
+    <t>ANKENTBL</t>
+  </si>
   <si>
     <t>レコード項目</t>
   </si>
@@ -56,7 +62,7 @@
     <t>案件ID</t>
   </si>
   <si>
-    <t>ANNKENID</t>
+    <t>ANKENID</t>
   </si>
   <si>
     <t>〇</t>
@@ -65,22 +71,22 @@
     <t>VARCHAR</t>
   </si>
   <si>
-    <t>自動裁判</t>
+    <t>自動採番</t>
   </si>
   <si>
     <t>案件名</t>
   </si>
   <si>
-    <t>ANNKENNM</t>
+    <t>ANKENNM</t>
   </si>
   <si>
     <t>案件詳細ID</t>
   </si>
   <si>
-    <t>ANNKENDTLID</t>
-  </si>
-  <si>
-    <t>案件詳細テーブル(ANNKENDTLID)への外部キー
+    <t>ANKENDTLID</t>
+  </si>
+  <si>
+    <t>案件詳細テーブル(AANKENTLID)への外部キー
 自動裁判</t>
   </si>
   <si>
@@ -102,10 +108,10 @@
     <t>RECRUITDATE</t>
   </si>
   <si>
-    <t>ユーザーID</t>
-  </si>
-  <si>
-    <t>USERID</t>
+    <t>発注ユーザーID</t>
+  </si>
+  <si>
+    <t>HTUID</t>
   </si>
   <si>
     <t>ユーザーテーブルへの外部キー</t>
@@ -120,6 +126,9 @@
     <t>項目マスタへ(ITEMID)の外部キー</t>
   </si>
   <si>
+    <t>ANKENDTLTBL</t>
+  </si>
+  <si>
     <t>案件詳細内容</t>
   </si>
   <si>
@@ -148,9 +157,6 @@
   </si>
   <si>
     <t>発注者ID</t>
-  </si>
-  <si>
-    <t>HTUID</t>
   </si>
   <si>
     <t>ユーザーテーブルへ(USERID)の外部キー</t>
@@ -202,13 +208,25 @@
     <t>FNLMONEY</t>
   </si>
   <si>
+    <t>ICHIRANTBL</t>
+  </si>
+  <si>
     <t>応募の依頼を押下した際に書き込まれる。
 マイページ画面の案件一覧画面に表示する項目</t>
   </si>
   <si>
+    <t>USERTBL</t>
+  </si>
+  <si>
     <t>列名</t>
   </si>
   <si>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>USERID</t>
+  </si>
+  <si>
     <t>ユーザー名</t>
   </si>
   <si>
@@ -221,43 +239,49 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>氏名</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>生年月日</t>
-  </si>
-  <si>
-    <t>BIRTHDAY</t>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>電話番号</t>
-  </si>
-  <si>
-    <t>TEL</t>
-  </si>
-  <si>
-    <t>大学名</t>
-  </si>
-  <si>
-    <t>UNIV</t>
-  </si>
-  <si>
-    <t>居住地</t>
-  </si>
-  <si>
-    <t>ADDRESSID</t>
+    <t>国籍ID</t>
+  </si>
+  <si>
+    <t>COUNTRYID</t>
   </si>
   <si>
     <t>リストボックス表示
 項目マスタへ(ITEMID)の外部キー</t>
   </si>
   <si>
+    <t>氏名</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>生年月日</t>
+  </si>
+  <si>
+    <t>BIRTHDAY</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>電話番号</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>大学名</t>
+  </si>
+  <si>
+    <t>UNIV</t>
+  </si>
+  <si>
+    <t>居住地</t>
+  </si>
+  <si>
+    <t>ADDRESSID</t>
+  </si>
+  <si>
     <t>職業</t>
   </si>
   <si>
@@ -282,7 +306,7 @@
     <t>RANKID</t>
   </si>
   <si>
-    <t>発注ユーザーID</t>
+    <t>HYOKATBL</t>
   </si>
   <si>
     <t>受注ユーザーID</t>
@@ -307,10 +331,16 @@
     <t>評価コメントID</t>
   </si>
   <si>
+    <t>HYOUKACMID</t>
+  </si>
+  <si>
+    <t>評価コメント</t>
+  </si>
+  <si>
     <t>HYOUKACM</t>
   </si>
   <si>
-    <t>評価コメント</t>
+    <t>KOUMOKUM</t>
   </si>
   <si>
     <t>項目ID</t>
@@ -396,24 +426,45 @@
     <t>WK0001</t>
   </si>
   <si>
+    <t>フリーター</t>
+  </si>
+  <si>
     <t>WK0002</t>
   </si>
   <si>
+    <t>大学生</t>
+  </si>
+  <si>
     <t>WK0003</t>
   </si>
   <si>
+    <t>フリーランス</t>
+  </si>
+  <si>
     <t>WK0004</t>
   </si>
   <si>
+    <t>会社員</t>
+  </si>
+  <si>
     <t>WK0005</t>
   </si>
   <si>
+    <t>高校生</t>
+  </si>
+  <si>
     <t>WK0006</t>
   </si>
   <si>
+    <t>主婦</t>
+  </si>
+  <si>
     <t>WK0007</t>
   </si>
   <si>
+    <t>追加予定...</t>
+  </si>
+  <si>
     <t>WK0008</t>
   </si>
   <si>
@@ -423,25 +474,103 @@
     <t>WK0010</t>
   </si>
   <si>
-    <t>WK0011</t>
-  </si>
-  <si>
-    <t>WK0012</t>
-  </si>
-  <si>
-    <t>WK0013</t>
-  </si>
-  <si>
-    <t>WK0014</t>
-  </si>
-  <si>
-    <t>WK0015</t>
-  </si>
-  <si>
-    <t>WK0016</t>
-  </si>
-  <si>
-    <t>WK0017</t>
+    <t>国籍</t>
+  </si>
+  <si>
+    <t>CR001</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>CR002</t>
+  </si>
+  <si>
+    <t>アメリカ</t>
+  </si>
+  <si>
+    <t>CR003</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>CR004</t>
+  </si>
+  <si>
+    <t>韓国</t>
+  </si>
+  <si>
+    <t>CR005</t>
+  </si>
+  <si>
+    <t>フランス</t>
+  </si>
+  <si>
+    <t>CR006</t>
+  </si>
+  <si>
+    <t>イギリス</t>
+  </si>
+  <si>
+    <t>CR007</t>
+  </si>
+  <si>
+    <t>スペイン</t>
+  </si>
+  <si>
+    <t>CR008</t>
+  </si>
+  <si>
+    <t>タイ</t>
+  </si>
+  <si>
+    <t>CR009</t>
+  </si>
+  <si>
+    <t>ベトナム</t>
+  </si>
+  <si>
+    <t>CR010</t>
+  </si>
+  <si>
+    <t>AD001</t>
+  </si>
+  <si>
+    <t>関東</t>
+  </si>
+  <si>
+    <t>AD002</t>
+  </si>
+  <si>
+    <t>関西</t>
+  </si>
+  <si>
+    <t>AD003</t>
+  </si>
+  <si>
+    <t>北海道</t>
+  </si>
+  <si>
+    <t>AD004</t>
+  </si>
+  <si>
+    <t>AD005</t>
+  </si>
+  <si>
+    <t>AD006</t>
+  </si>
+  <si>
+    <t>AD007</t>
+  </si>
+  <si>
+    <t>AD008</t>
+  </si>
+  <si>
+    <t>AD009</t>
+  </si>
+  <si>
+    <t>AD010</t>
   </si>
 </sst>
 </file>
@@ -449,10 +578,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -478,10 +607,40 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,46 +683,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,13 +706,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -601,13 +716,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,25 +751,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,13 +787,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,13 +811,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,31 +841,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,13 +871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,13 +895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,37 +907,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,6 +956,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,6 +1023,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -904,36 +1057,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -942,145 +1065,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1419,223 +1542,220 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="13" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="19.7818181818182" customWidth="1"/>
-    <col min="5" max="5" width="10.2181818181818" customWidth="1"/>
-    <col min="6" max="6" width="10.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="48.1090909090909" customWidth="1"/>
+    <col min="1" max="2" width="19.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="10.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="10.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="48.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" ht="26" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G4" s="3">
         <v>10</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>17</v>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" ht="26" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3">
-        <v>8</v>
-      </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3"/>
@@ -1657,9 +1777,28 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1667,305 +1806,321 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="13" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="19.7818181818182" customWidth="1"/>
-    <col min="5" max="5" width="10.2181818181818" customWidth="1"/>
-    <col min="6" max="6" width="10.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="39.6636363636364" customWidth="1"/>
+    <col min="1" max="2" width="19.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="10.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="10.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="39.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" customFormat="1" spans="1:1">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3">
-        <v>500</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" s="3">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" customFormat="1" spans="1:8">
       <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:8">
+      <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" ht="26" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G8" s="3">
         <v>8</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="26" spans="1:8">
+      <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="3">
-        <v>30</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G11" s="3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" customFormat="1" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G12" s="3">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" customFormat="1" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G13" s="3">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" customFormat="1" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G14" s="3">
+        <v>30</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3">
+        <v>200</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="3">
         <v>6</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1973,17 +2128,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="19.7818181818182" customWidth="1"/>
-    <col min="5" max="5" width="10.2181818181818" customWidth="1"/>
-    <col min="6" max="6" width="10.6636363636364" customWidth="1"/>
+    <col min="1" max="2" width="19.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="10.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="10.6363636363636" customWidth="1"/>
     <col min="8" max="8" width="43.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1991,119 +2146,141 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" customFormat="1" spans="1:1">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="26" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="4" customFormat="1" ht="26" spans="1:8">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="H4" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3">
         <v>8</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="H5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3">
         <v>10</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2111,295 +2288,335 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="13" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.8909090909091" customWidth="1"/>
+    <col min="1" max="1" width="21.9090909090909" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="6" max="6" width="10.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="32.2181818181818" customWidth="1"/>
+    <col min="6" max="6" width="10.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="32.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" customFormat="1" spans="1:1">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3">
         <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3">
-        <v>20</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3">
-        <v>8</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="26" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3">
-        <v>20</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" s="3">
         <v>20</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" ht="26" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G9" s="3">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" ht="26" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3">
-        <v>10</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>74</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" ht="26" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="H12" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" ht="26" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3">
         <v>50</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2407,208 +2624,220 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.6636363636364" customWidth="1"/>
-    <col min="2" max="2" width="11.8909090909091" customWidth="1"/>
-    <col min="8" max="8" width="39.6636363636364" customWidth="1"/>
+    <col min="1" max="1" width="15.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="14.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="39.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" customFormat="1" spans="1:1">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" ht="26" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" ht="26" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G7" s="3">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2616,95 +2845,111 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.6636363636364" customWidth="1"/>
-    <col min="2" max="2" width="8.44545454545455" customWidth="1"/>
+    <col min="1" max="1" width="12.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="8.45454545454546" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="9.33636363636364" customWidth="1"/>
-    <col min="5" max="5" width="10.2181818181818" customWidth="1"/>
-    <col min="6" max="6" width="10.6636363636364" customWidth="1"/>
-    <col min="7" max="7" width="8.78181818181818" customWidth="1"/>
-    <col min="8" max="8" width="23.7818181818182" customWidth="1"/>
+    <col min="4" max="4" width="9.36363636363636" customWidth="1"/>
+    <col min="5" max="5" width="10.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="10.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="8.81818181818182" customWidth="1"/>
+    <col min="8" max="8" width="23.7909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" customFormat="1" spans="1:1">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" ht="39" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" ht="39" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3">
         <v>100</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>97</v>
+      <c r="H5" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2712,282 +2957,372 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="13" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="40.7818181818182" customWidth="1"/>
+    <col min="2" max="2" width="40.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="3"/>
+      <c r="A24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B30" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3"/>
@@ -3037,13 +3372,43 @@
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
     </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A46:B46"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/テーブル構成.xlsx
+++ b/テーブル構成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7300" tabRatio="935"/>
+    <workbookView windowWidth="9500" windowHeight="8300" tabRatio="935"/>
   </bookViews>
   <sheets>
     <sheet name="案件テーブル" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
   <si>
     <t>テーブル名</t>
   </si>
@@ -80,14 +80,10 @@
     <t>ANKENNM</t>
   </si>
   <si>
-    <t>案件詳細ID</t>
-  </si>
-  <si>
-    <t>ANKENDTLID</t>
-  </si>
-  <si>
-    <t>案件詳細テーブル(AANKENTLID)への外部キー
-自動裁判</t>
+    <t>案件詳細内容</t>
+  </si>
+  <si>
+    <t>CONTENTS</t>
   </si>
   <si>
     <t>掲載日</t>
@@ -108,55 +104,67 @@
     <t>RECRUITDATE</t>
   </si>
   <si>
-    <t>発注ユーザーID</t>
+    <t>最低金額</t>
+  </si>
+  <si>
+    <t>MINPAY</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>最高金額</t>
+  </si>
+  <si>
+    <t>MAXPAY</t>
+  </si>
+  <si>
+    <t>納期</t>
+  </si>
+  <si>
+    <t>DELIVE</t>
+  </si>
+  <si>
+    <t>中間成果物ファイル名</t>
+  </si>
+  <si>
+    <t>MIDFILENM</t>
+  </si>
+  <si>
+    <t>中間成果物コメント</t>
+  </si>
+  <si>
+    <t>MDCOMMENT</t>
+  </si>
+  <si>
+    <t>中間出来高</t>
+  </si>
+  <si>
+    <t>MDMONEY</t>
+  </si>
+  <si>
+    <t>最終成果物ファイル名</t>
+  </si>
+  <si>
+    <t>FNLFILENM</t>
+  </si>
+  <si>
+    <t>最終成果物コメント</t>
+  </si>
+  <si>
+    <t>FNLCOMMENT</t>
+  </si>
+  <si>
+    <t>最終出来高</t>
+  </si>
+  <si>
+    <t>FNLMONEY</t>
+  </si>
+  <si>
+    <t>発注者ID</t>
   </si>
   <si>
     <t>HTUID</t>
-  </si>
-  <si>
-    <t>ユーザーテーブルへの外部キー</t>
-  </si>
-  <si>
-    <t>ステータスID</t>
-  </si>
-  <si>
-    <t>STID</t>
-  </si>
-  <si>
-    <t>項目マスタへ(ITEMID)の外部キー</t>
-  </si>
-  <si>
-    <t>ANKENDTLTBL</t>
-  </si>
-  <si>
-    <t>案件詳細内容</t>
-  </si>
-  <si>
-    <t>CONTENTS</t>
-  </si>
-  <si>
-    <t>最低金額</t>
-  </si>
-  <si>
-    <t>MINPAY</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
-    <t>最高金額</t>
-  </si>
-  <si>
-    <t>MAXPAY</t>
-  </si>
-  <si>
-    <t>納期</t>
-  </si>
-  <si>
-    <t>DELV</t>
-  </si>
-  <si>
-    <t>発注者ID</t>
   </si>
   <si>
     <t>ユーザーテーブルへ(USERID)の外部キー</t>
@@ -172,40 +180,22 @@
 発注者が受注者を決定した際に書き込まれる</t>
   </si>
   <si>
-    <t>中間成果物ファイル名</t>
-  </si>
-  <si>
-    <t>MIDFILENM</t>
-  </si>
-  <si>
-    <t>中間成果物コメント</t>
-  </si>
-  <si>
-    <t>MDCOMMENT</t>
-  </si>
-  <si>
-    <t>中間出来高</t>
-  </si>
-  <si>
-    <t>MDMONEY</t>
-  </si>
-  <si>
-    <t>最終成果物ファイル名</t>
-  </si>
-  <si>
-    <t>FNLFILENM</t>
-  </si>
-  <si>
-    <t>最終成果物コメント</t>
-  </si>
-  <si>
-    <t>FNLCOMMENT</t>
-  </si>
-  <si>
-    <t>最終出来高</t>
-  </si>
-  <si>
-    <t>FNLMONEY</t>
+    <t>ステータスID</t>
+  </si>
+  <si>
+    <t>STID</t>
+  </si>
+  <si>
+    <t>項目マスタへ(ITEMID)の外部キー</t>
+  </si>
+  <si>
+    <t>ANKENDTLTBL</t>
+  </si>
+  <si>
+    <t>案件詳細ID</t>
+  </si>
+  <si>
+    <t>ANKENDTLID</t>
   </si>
   <si>
     <t>ICHIRANTBL</t>
@@ -276,13 +266,13 @@
     <t>UNIV</t>
   </si>
   <si>
-    <t>居住地</t>
+    <t>居住地ID</t>
   </si>
   <si>
     <t>ADDRESSID</t>
   </si>
   <si>
-    <t>職業</t>
+    <t>職業ID</t>
   </si>
   <si>
     <t>WORKID</t>
@@ -307,6 +297,9 @@
   </si>
   <si>
     <t>HYOKATBL</t>
+  </si>
+  <si>
+    <t>発注ユーザーID</t>
   </si>
   <si>
     <t>受注ユーザーID</t>
@@ -423,30 +416,33 @@
     <t>終了</t>
   </si>
   <si>
+    <t>職業</t>
+  </si>
+  <si>
     <t>WK0001</t>
   </si>
   <si>
+    <t>会社員</t>
+  </si>
+  <si>
+    <t>WK0002</t>
+  </si>
+  <si>
+    <t>大学生</t>
+  </si>
+  <si>
+    <t>WK0003</t>
+  </si>
+  <si>
+    <t>フリーランス</t>
+  </si>
+  <si>
+    <t>WK0004</t>
+  </si>
+  <si>
     <t>フリーター</t>
   </si>
   <si>
-    <t>WK0002</t>
-  </si>
-  <si>
-    <t>大学生</t>
-  </si>
-  <si>
-    <t>WK0003</t>
-  </si>
-  <si>
-    <t>フリーランス</t>
-  </si>
-  <si>
-    <t>WK0004</t>
-  </si>
-  <si>
-    <t>会社員</t>
-  </si>
-  <si>
     <t>WK0005</t>
   </si>
   <si>
@@ -477,100 +473,94 @@
     <t>国籍</t>
   </si>
   <si>
-    <t>CR001</t>
+    <t>CR0001</t>
   </si>
   <si>
     <t>日本</t>
   </si>
   <si>
-    <t>CR002</t>
+    <t>CR0002</t>
   </si>
   <si>
     <t>アメリカ</t>
   </si>
   <si>
-    <t>CR003</t>
+    <t>CR0003</t>
   </si>
   <si>
     <t>中国</t>
   </si>
   <si>
-    <t>CR004</t>
+    <t>CR0004</t>
   </si>
   <si>
     <t>韓国</t>
   </si>
   <si>
-    <t>CR005</t>
+    <t>CR0005</t>
   </si>
   <si>
     <t>フランス</t>
   </si>
   <si>
-    <t>CR006</t>
+    <t>CR0006</t>
   </si>
   <si>
     <t>イギリス</t>
   </si>
   <si>
-    <t>CR007</t>
+    <t>CR0007</t>
   </si>
   <si>
     <t>スペイン</t>
   </si>
   <si>
-    <t>CR008</t>
+    <t>CR0008</t>
   </si>
   <si>
     <t>タイ</t>
   </si>
   <si>
-    <t>CR009</t>
+    <t>CR0009</t>
   </si>
   <si>
     <t>ベトナム</t>
   </si>
   <si>
-    <t>CR010</t>
-  </si>
-  <si>
-    <t>AD001</t>
-  </si>
-  <si>
-    <t>関東</t>
-  </si>
-  <si>
-    <t>AD002</t>
-  </si>
-  <si>
-    <t>関西</t>
-  </si>
-  <si>
-    <t>AD003</t>
-  </si>
-  <si>
-    <t>北海道</t>
-  </si>
-  <si>
-    <t>AD004</t>
-  </si>
-  <si>
-    <t>AD005</t>
-  </si>
-  <si>
-    <t>AD006</t>
-  </si>
-  <si>
-    <t>AD007</t>
-  </si>
-  <si>
-    <t>AD008</t>
-  </si>
-  <si>
-    <t>AD009</t>
-  </si>
-  <si>
-    <t>AD010</t>
+    <t>CR0010</t>
+  </si>
+  <si>
+    <t>居住地</t>
+  </si>
+  <si>
+    <t>AD0001</t>
+  </si>
+  <si>
+    <t>AD0002</t>
+  </si>
+  <si>
+    <t>AD0003</t>
+  </si>
+  <si>
+    <t>AD0004</t>
+  </si>
+  <si>
+    <t>AD0005</t>
+  </si>
+  <si>
+    <t>AD0006</t>
+  </si>
+  <si>
+    <t>AD0007</t>
+  </si>
+  <si>
+    <t>AD0008</t>
+  </si>
+  <si>
+    <t>AD0009</t>
+  </si>
+  <si>
+    <t>AD0010</t>
   </si>
 </sst>
 </file>
@@ -578,10 +568,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -599,16 +589,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,22 +606,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,14 +617,6 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -683,6 +643,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -700,7 +697,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,21 +711,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -763,13 +753,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,31 +801,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,7 +825,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,49 +903,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,49 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,17 +950,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,6 +1009,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1037,26 +1047,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1065,145 +1055,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1542,9 +1532,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1643,7 +1633,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="26" spans="1:8">
+    <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1651,9 +1641,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1661,18 +1649,16 @@
         <v>13</v>
       </c>
       <c r="G6" s="3">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1680,21 +1666,21 @@
         <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3">
         <v>8</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1702,100 +1688,250 @@
         <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="3">
         <v>8</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" customFormat="1" spans="1:8">
       <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G9" s="3">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:8">
+      <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:8">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+    <row r="12" customFormat="1" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3">
+        <v>30</v>
+      </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+    <row r="13" customFormat="1" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3">
+        <v>200</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+    <row r="14" customFormat="1" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
       <c r="H14" s="3"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3">
+        <v>200</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="3">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="26" spans="1:8">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="3">
+        <v>8</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="3">
+        <v>10</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1808,7 +1944,7 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1834,7 +1970,7 @@
     </row>
     <row r="2" customFormat="1" spans="1:1">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:8">
@@ -1865,10 +2001,10 @@
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
@@ -1887,10 +2023,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1907,10 +2043,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1918,7 +2054,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3">
         <v>6</v>
@@ -1927,10 +2063,10 @@
     </row>
     <row r="7" customFormat="1" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1938,7 +2074,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
@@ -1947,10 +2083,10 @@
     </row>
     <row r="8" customFormat="1" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1958,7 +2094,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="3">
         <v>8</v>
@@ -1967,10 +2103,10 @@
     </row>
     <row r="9" customFormat="1" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
@@ -1986,15 +2122,15 @@
         <v>8</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="26" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
@@ -2008,15 +2144,15 @@
         <v>8</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2031,10 +2167,10 @@
     </row>
     <row r="12" customFormat="1" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2049,16 +2185,16 @@
     </row>
     <row r="13" customFormat="1" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G13" s="3">
         <v>6</v>
@@ -2067,10 +2203,10 @@
     </row>
     <row r="14" customFormat="1" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2085,10 +2221,10 @@
     </row>
     <row r="15" customFormat="1" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2103,16 +2239,16 @@
     </row>
     <row r="16" customFormat="1" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G16" s="3">
         <v>6</v>
@@ -2130,7 +2266,7 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2156,7 +2292,7 @@
     </row>
     <row r="2" customFormat="1" spans="1:1">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:8">
@@ -2195,7 +2331,9 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2206,7 +2344,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:8">
@@ -2230,15 +2368,15 @@
         <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -2254,15 +2392,15 @@
         <v>8</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
@@ -2276,7 +2414,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2428,7 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2316,7 +2454,7 @@
     </row>
     <row r="2" customFormat="1" spans="1:1">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2324,7 +2462,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -2347,10 +2485,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
@@ -2367,10 +2505,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2387,10 +2525,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2407,10 +2545,10 @@
     </row>
     <row r="7" ht="26" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
@@ -2420,21 +2558,21 @@
         <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G7" s="3">
         <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2451,10 +2589,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2462,27 +2600,27 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3">
         <v>20</v>
@@ -2491,10 +2629,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2511,10 +2649,10 @@
     </row>
     <row r="12" ht="26" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
@@ -2524,21 +2662,21 @@
         <v>12</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G12" s="3">
         <v>10</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" ht="26" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
@@ -2548,21 +2686,21 @@
         <v>12</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G13" s="3">
         <v>10</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2579,10 +2717,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2597,10 +2735,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2626,8 +2764,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -2651,7 +2789,7 @@
     </row>
     <row r="2" customFormat="1" spans="1:1">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2708,10 +2846,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -2727,15 +2865,15 @@
         <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -2751,15 +2889,15 @@
         <v>8</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" ht="26" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
@@ -2775,15 +2913,15 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2800,10 +2938,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2820,10 +2958,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2847,7 +2985,7 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2877,7 +3015,7 @@
     </row>
     <row r="2" customFormat="1" spans="1:1">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2885,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -2908,10 +3046,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
@@ -2930,10 +3068,10 @@
     </row>
     <row r="5" ht="39" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2945,7 +3083,7 @@
         <v>100</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2959,8 +3097,8 @@
   <sheetPr/>
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -2970,273 +3108,273 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="B35" s="2"/>
     </row>
@@ -3245,79 +3383,79 @@
         <v>166</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:2">

--- a/テーブル構成.xlsx
+++ b/テーブル構成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9500" windowHeight="8300" tabRatio="935"/>
+    <workbookView windowWidth="19100" windowHeight="8710" tabRatio="935"/>
   </bookViews>
   <sheets>
     <sheet name="案件テーブル" sheetId="1" r:id="rId1"/>
@@ -568,10 +568,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -582,26 +582,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -620,11 +620,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,8 +642,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,29 +673,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,31 +687,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,6 +698,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,7 +747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,19 +759,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,139 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,26 +946,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,6 +989,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1033,17 +1028,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,145 +1055,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1941,11 +1941,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor theme="0" tint="-0.25"/>
+  </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
